--- a/xlsx/政治经济学_intext.xlsx
+++ b/xlsx/政治经济学_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_history</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>經濟活動</t>
+    <t>经济活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E7%B3%BB</t>
@@ -479,13 +479,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新馬克思主義</t>
+    <t>新马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8B%92%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>華勒斯坦</t>
+    <t>华勒斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BD%93%E7%B3%BB%E7%90%86%E8%AE%BA</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>自由市場經濟</t>
+    <t>自由市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AF%8C%E8%AE%BA</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%A2</t>
   </si>
   <si>
-    <t>錢</t>
+    <t>钱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%9C%AC</t>
@@ -737,19 +737,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E5%92%8C%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>供給和需求</t>
+    <t>供给和需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>民主黨</t>
+    <t>民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8</t>
   </si>
   <si>
-    <t>共和黨</t>
+    <t>共和党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E6%88%B4%E7%BB%B4%C2%B7%E6%A2%AD%E7%BD%97</t>
@@ -857,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E5%AD%A6%E6%B4%BE%E4%B8%8E%E5%92%B8%E6%B0%B4%E5%AD%A6%E6%B4%BE</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
@@ -929,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IS-LM%E6%A8%A1%E5%9E%8B</t>
@@ -995,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
@@ -1025,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瓊·羅賓遜</t>
+    <t>琼·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E8%90%A8%E9%87%91%E7%89%B9</t>
@@ -1037,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
